--- a/ocms/src/test/resources/DownloadedFiles/TMACBlindTransfer.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/TMACBlindTransfer.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">bengteth\administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">25/09/2019 20:40:21</t>
+    <t xml:space="preserve">21/10/2019 19:23:02</t>
   </si>
   <si>
     <t xml:space="preserve">textchat</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">49011</t>
   </si>
   <si>
-    <t xml:space="preserve">25/09/2019 20:39:15</t>
+    <t xml:space="preserve">21/10/2019 19:22:14</t>
   </si>
   <si>
     <t xml:space="preserve">ChatSkill4</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">90002</t>
   </si>
   <si>
-    <t xml:space="preserve">25/09/2019 20:39:28</t>
+    <t xml:space="preserve">21/10/2019 19:22:25</t>
   </si>
 </sst>
 </file>
@@ -144,20 +144,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr x14ac:dyDescent="0.25" defaultRowHeight="15"/>
+  <sheetFormatPr x14ac:dyDescent="0.25" customHeight="1" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="14.290714285714287"/>
-    <col min="2" max="2" customWidth="1" width="14.290714285714287"/>
-    <col min="3" max="3" customWidth="1" width="14.290714285714287"/>
-    <col min="4" max="4" customWidth="1" width="14.290714285714287"/>
-    <col min="5" max="5" customWidth="1" width="28.576428571428572"/>
-    <col min="6" max="6" customWidth="1" width="28.576428571428572"/>
+    <col min="1" max="1" customWidth="1" width="14.215401785714286"/>
+    <col min="2" max="2" customWidth="1" width="14.215401785714286"/>
+    <col min="3" max="3" customWidth="1" width="14.215401785714286"/>
+    <col min="4" max="4" customWidth="1" width="14.215401785714286"/>
+    <col min="5" max="5" customWidth="1" width="28.501116071428573"/>
+    <col min="6" max="6" customWidth="1" width="28.501116071428573"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">

--- a/ocms/src/test/resources/DownloadedFiles/TMACBlindTransfer.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/TMACBlindTransfer.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -37,52 +37,55 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
+    <t xml:space="preserve">voice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VoiceSkill14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bengteth\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/11/2019 13:44:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">videochat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoSkill2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/10/2019 14:47:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FaxSkill-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">421112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/10/2019 13:29:14</t>
+  </si>
+  <si>
     <t xml:space="preserve">textchat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChatSkill11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bengteth\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/11/2019 18:24:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">videochat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VideoSkill2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/10/2019 14:47:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FaxSkill-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">421112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/10/2019 13:29:14</t>
   </si>
   <si>
     <t xml:space="preserve">ChatBotAgentCM</t>
@@ -326,42 +329,42 @@
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
@@ -369,79 +372,79 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
